--- a/data/trans_dic/P1801_2016_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1801_2016_2023-Edad-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2197804852242614</v>
+        <v>0.2211448341813733</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1336680070417587</v>
+        <v>0.1296414965284798</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3609802814102168</v>
+        <v>0.3631961090188795</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3330406286832597</v>
+        <v>0.3393789397580864</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3035691440824607</v>
+        <v>0.3008957855841859</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2436017193562653</v>
+        <v>0.2445189051011233</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3084841801436572</v>
+        <v>0.3118230104768887</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2564163297584403</v>
+        <v>0.2555607277756282</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4582258022587952</v>
+        <v>0.4548216777138371</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4774432795339433</v>
+        <v>0.4820431866047329</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3671119818826349</v>
+        <v>0.3659773420495835</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3411595945403349</v>
+        <v>0.3391903380149893</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.3029980266073674</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3397092371897144</v>
+        <v>0.3397092371897145</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.4927502037054306</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2700990573270337</v>
+        <v>0.2657586600840569</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2872826625947763</v>
+        <v>0.284999397924859</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4514252876764704</v>
+        <v>0.453833040644264</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3742046781243641</v>
+        <v>0.374756737088869</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3696946189747427</v>
+        <v>0.3644290678067875</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3425971274480908</v>
+        <v>0.3435936403527214</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.344118974437524</v>
+        <v>0.3424168627695972</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3988014796173195</v>
+        <v>0.3940796682805622</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5372853258734163</v>
+        <v>0.5344299527813986</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4636371726662192</v>
+        <v>0.4635591098609618</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4278077553959381</v>
+        <v>0.4279818614501695</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4166187514245152</v>
+        <v>0.4174133926289944</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.4189263100455345</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.4114860170114086</v>
+        <v>0.4114860170114087</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.5203592135678337</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3810209825637523</v>
+        <v>0.3821246058487051</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3699170457537648</v>
+        <v>0.3722713163112343</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4813277630367436</v>
+        <v>0.4803092154923028</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4447478874854393</v>
+        <v>0.4410642915316841</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4429730547790617</v>
+        <v>0.4415040209887358</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4174377266485436</v>
+        <v>0.4197206957143523</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4560618162365189</v>
+        <v>0.4600700412244346</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4565187048022577</v>
+        <v>0.451193883466716</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5561838551579041</v>
+        <v>0.5551326083845028</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5111572604706721</v>
+        <v>0.5091319460111087</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4955754854745029</v>
+        <v>0.4974144774789646</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4711087596502944</v>
+        <v>0.4724746505283913</v>
       </c>
     </row>
     <row r="13">
@@ -870,7 +870,7 @@
         <v>0.5009311425249715</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.5444456761246236</v>
+        <v>0.5444456761246237</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4412761448017974</v>
+        <v>0.4386021791341533</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4774686797216721</v>
+        <v>0.4819279484666689</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4782909593515773</v>
+        <v>0.4797101614713338</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5397843275309018</v>
+        <v>0.5362049207692695</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4727239231142654</v>
+        <v>0.4732458111213684</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5203314169747091</v>
+        <v>0.5185093562849648</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5227838816692219</v>
+        <v>0.5224240000735099</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5566985130705296</v>
+        <v>0.559240148785228</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.563507552683999</v>
+        <v>0.5589716670400248</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5959754923296861</v>
+        <v>0.5947881929203005</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5287319079027267</v>
+        <v>0.5294146310815999</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5705388188946882</v>
+        <v>0.5662151474287961</v>
       </c>
     </row>
     <row r="16">
@@ -946,13 +946,13 @@
         <v>0.6626017447334633</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6433740721017852</v>
+        <v>0.6433740721017854</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.6219393414965487</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.6054056287253202</v>
+        <v>0.6054056287253201</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5282389787616434</v>
+        <v>0.5345185026521484</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5325682120691549</v>
+        <v>0.5286525343548986</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6152277971221806</v>
+        <v>0.6156609471183971</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6114125649470097</v>
+        <v>0.6136870699236302</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5843755717548649</v>
+        <v>0.5900169820967863</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5821723091243431</v>
+        <v>0.579947717581625</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6229992305933248</v>
+        <v>0.6287973085335515</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6088855546156073</v>
+        <v>0.6062377810893773</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7091933011107187</v>
+        <v>0.7066729201322133</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6717739256191601</v>
+        <v>0.6756156025239357</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6525964401457186</v>
+        <v>0.6553650006825229</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6324142282181519</v>
+        <v>0.6281472877341954</v>
       </c>
     </row>
     <row r="19">
@@ -1034,7 +1034,7 @@
         <v>0.7201097692680297</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.6572799720470412</v>
+        <v>0.6572799720470414</v>
       </c>
     </row>
     <row r="20">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6221962530651793</v>
+        <v>0.6222746062561957</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6015947842360155</v>
+        <v>0.606386705194885</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7093715666473339</v>
+        <v>0.7054558021160315</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6344054794769584</v>
+        <v>0.6362700856796605</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6852028257162753</v>
+        <v>0.6834298598884488</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6323674932842818</v>
+        <v>0.6305303494785993</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7268260235760725</v>
+        <v>0.7264143208141033</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6869678405143134</v>
+        <v>0.6868373194856163</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7973947895976472</v>
+        <v>0.7998707408915687</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7008495736681047</v>
+        <v>0.7013332675012852</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7564404730006211</v>
+        <v>0.7500023397395964</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.680701370668498</v>
+        <v>0.6823408296574452</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
         <v>0.7332340964675688</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.7201143845549109</v>
+        <v>0.7201143845549111</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7006821716716916</v>
+        <v>0.7090540125363085</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.683341973192288</v>
+        <v>0.6832543662621443</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6682533899539853</v>
+        <v>0.6642715310031136</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6801559374117457</v>
+        <v>0.6780312760243675</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6919989103098245</v>
+        <v>0.6941240775628764</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6928379595900533</v>
+        <v>0.6939766923354028</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8027571359692658</v>
+        <v>0.8019426750028801</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7750368808325581</v>
+        <v>0.7702717457641233</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7689165337723062</v>
+        <v>0.7632070596871687</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7468857769746442</v>
+        <v>0.7408757966560346</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7682990602582671</v>
+        <v>0.7674785096209277</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7440907678820831</v>
+        <v>0.7432786832760664</v>
       </c>
     </row>
     <row r="25">
@@ -1198,7 +1198,7 @@
         <v>0.5193213263810103</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.5203379198049807</v>
+        <v>0.5203379198049808</v>
       </c>
     </row>
     <row r="26">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4475595343901225</v>
+        <v>0.4480329564789878</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.461541466958131</v>
+        <v>0.4612968740448078</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.5532577037495738</v>
+        <v>0.5546300577004409</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.5444992205222429</v>
+        <v>0.5454772121436779</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.5081409029750081</v>
+        <v>0.507074423162391</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.5080794586278856</v>
+        <v>0.5085860506135231</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4809109046290754</v>
+        <v>0.4839781006018267</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4978068023987729</v>
+        <v>0.4983244264451837</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5883057871641788</v>
+        <v>0.5876364796677144</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.5731862402268891</v>
+        <v>0.5746539274091514</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.5308913670540194</v>
+        <v>0.5307484382959128</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.5316435867351338</v>
+        <v>0.5318484129088118</v>
       </c>
     </row>
     <row r="28">
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>92190</v>
+        <v>92762</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>54509</v>
+        <v>52867</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>142860</v>
+        <v>143737</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>120177</v>
+        <v>122464</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>247475</v>
+        <v>245296</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>187242</v>
+        <v>187947</v>
       </c>
     </row>
     <row r="7">
@@ -1466,22 +1466,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>129398</v>
+        <v>130798</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>104565</v>
+        <v>104216</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>181345</v>
+        <v>179998</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>172284</v>
+        <v>173944</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>299276</v>
+        <v>298351</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>262229</v>
+        <v>260715</v>
       </c>
     </row>
     <row r="8">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>159492</v>
+        <v>156929</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>137002</v>
+        <v>135913</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>254398</v>
+        <v>255755</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>187175</v>
+        <v>187451</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>426642</v>
+        <v>420566</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>334746</v>
+        <v>335720</v>
       </c>
     </row>
     <row r="11">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>203201</v>
+        <v>202196</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>190184</v>
+        <v>187933</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>302784</v>
+        <v>301175</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>231909</v>
+        <v>231869</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>493707</v>
+        <v>493908</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>407072</v>
+        <v>407848</v>
       </c>
     </row>
     <row r="12">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>254940</v>
+        <v>255678</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>229259</v>
+        <v>230718</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>318343</v>
+        <v>317670</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>276400</v>
+        <v>274111</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>589368</v>
+        <v>587414</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>518138</v>
+        <v>520972</v>
       </c>
     </row>
     <row r="15">
@@ -1682,22 +1682,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>305150</v>
+        <v>307831</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>282931</v>
+        <v>279631</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>367852</v>
+        <v>367157</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>317672</v>
+        <v>316413</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>659355</v>
+        <v>661802</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>584757</v>
+        <v>586452</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>285086</v>
+        <v>283358</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>333985</v>
+        <v>337104</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>310448</v>
+        <v>311369</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>397036</v>
+        <v>394403</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>612237</v>
+        <v>612912</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>746694</v>
+        <v>744080</v>
       </c>
     </row>
     <row r="19">
@@ -1790,22 +1790,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>337743</v>
+        <v>337511</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>389405</v>
+        <v>391183</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>365760</v>
+        <v>362816</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>438367</v>
+        <v>437494</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>684774</v>
+        <v>685658</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>818744</v>
+        <v>812539</v>
       </c>
     </row>
     <row r="20">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>252455</v>
+        <v>255456</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>323948</v>
+        <v>321567</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>305675</v>
+        <v>305891</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>371431</v>
+        <v>372812</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>569630</v>
+        <v>575129</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>707789</v>
+        <v>705084</v>
       </c>
     </row>
     <row r="23">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>297743</v>
+        <v>300514</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>370370</v>
+        <v>368760</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>352362</v>
+        <v>351110</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>408100</v>
+        <v>410434</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>636129</v>
+        <v>638828</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>768872</v>
+        <v>763684</v>
       </c>
     </row>
     <row r="24">
@@ -1980,22 +1980,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>208019</v>
+        <v>208045</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>244897</v>
+        <v>246848</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>267974</v>
+        <v>266494</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>278335</v>
+        <v>279153</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>487927</v>
+        <v>486665</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>534865</v>
+        <v>533311</v>
       </c>
     </row>
     <row r="27">
@@ -2006,22 +2006,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>243000</v>
+        <v>242862</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>279651</v>
+        <v>279598</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>301225</v>
+        <v>302161</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>307487</v>
+        <v>307699</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>538655</v>
+        <v>534071</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>575747</v>
+        <v>577133</v>
       </c>
     </row>
     <row r="28">
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>180074</v>
+        <v>182225</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>211971</v>
+        <v>211944</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>267414</v>
+        <v>265821</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>315235</v>
+        <v>314251</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>454759</v>
+        <v>456155</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>536030</v>
+        <v>536911</v>
       </c>
     </row>
     <row r="31">
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>206307</v>
+        <v>206098</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>240415</v>
+        <v>238937</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>307697</v>
+        <v>305412</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>346163</v>
+        <v>343377</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>504901</v>
+        <v>504362</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>575683</v>
+        <v>575055</v>
       </c>
     </row>
     <row r="32">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1519174</v>
+        <v>1520781</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1629004</v>
+        <v>1628141</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1961045</v>
+        <v>1965910</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2029767</v>
+        <v>2033412</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>3525935</v>
+        <v>3518535</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>3687262</v>
+        <v>3690938</v>
       </c>
     </row>
     <row r="35">
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1632380</v>
+        <v>1642791</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1757002</v>
+        <v>1758829</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2085275</v>
+        <v>2082902</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>2136705</v>
+        <v>2142177</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>3683798</v>
+        <v>3682806</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>3858273</v>
+        <v>3859759</v>
       </c>
     </row>
     <row r="36">
